--- a/exercise2.results.xlsx
+++ b/exercise2.results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tester\MT07-1\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1125" windowWidth="27840" windowHeight="13200"/>
+    <workbookView xWindow="5565" yWindow="1125" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan_тест-план1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -381,9 +376,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>Books.GET.{id} негативный id(большое число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/39</t>
   </si>
   <si>
@@ -399,18 +391,12 @@
     <t>41</t>
   </si>
   <si>
-    <t>Books.PUT.{id} негативный id(большое число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/41</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>Books.PUT.{id} негативный id(отрицательное число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/113</t>
   </si>
   <si>
@@ -444,18 +430,12 @@
     <t>46</t>
   </si>
   <si>
-    <t>Books.DELETE.{id} негативный id(большое число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/46</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>Books.DELETE.{id} негативный id(отрицательное число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/114</t>
   </si>
   <si>
@@ -645,18 +625,12 @@
     <t>91</t>
   </si>
   <si>
-    <t>Users.GET.{id} негативный id (большое число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/91</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>Users.GET.{id} негативный id(отрицательное число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/115</t>
   </si>
   <si>
@@ -672,18 +646,12 @@
     <t>93</t>
   </si>
   <si>
-    <t>Users.PUT.{id} негативный id(большое число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/93</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>Users.PUT.{id} негативный id(отрицательное число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/116</t>
   </si>
   <si>
@@ -717,18 +685,12 @@
     <t>98</t>
   </si>
   <si>
-    <t>Users.DELETE.{id} негативный</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/98</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>Users.DELETE.{id} негативный id(отрицательное число)</t>
-  </si>
-  <si>
     <t>https://team-p8o0.testit.software:443//projects/3/tests/117</t>
   </si>
   <si>
@@ -804,12 +766,6 @@
     <t>Authors.PUT.{id} - ввод неверного типа поля в тело запроса</t>
   </si>
   <si>
-    <t>Books.POST - ввод неверного типа поля в тело запроса</t>
-  </si>
-  <si>
-    <t>Books.PUT.{id} - ввод неверного типа поля в тело запроса</t>
-  </si>
-  <si>
     <t>CoverPhotos.PUT.{id} - ввод неверного типа поля в тело запроса</t>
   </si>
   <si>
@@ -886,13 +842,52 @@
   </si>
   <si>
     <t>Activities.DELETE.{id} - ввод в id отрицательного числа</t>
+  </si>
+  <si>
+    <t>Users.PUT.{id} ввод в id пользователя  отрицательного числа</t>
+  </si>
+  <si>
+    <t>Books.POST - ввод в idBook книги числа больше 8 разрядов</t>
+  </si>
+  <si>
+    <t>Books.GET.{id} ввод в id книги отрицательного числа</t>
+  </si>
+  <si>
+    <t>Books.PUT.{id} ввод в id книги числа больше 8 разрядов</t>
+  </si>
+  <si>
+    <t>Books.PUT.{id} ввод в id книги отрицательного числа</t>
+  </si>
+  <si>
+    <t>Books.PUT.{id} -ввод неверного типа поля в тело запроса</t>
+  </si>
+  <si>
+    <t>Books.DELETE.{id}  ввод в id книги числа больше 8 разрядов</t>
+  </si>
+  <si>
+    <t>Books.DELETE.{id} ввод в id книги отрицательного числа</t>
+  </si>
+  <si>
+    <t>Users.GET.{id} ввод в id пользователя числа больше 8 разрядов.</t>
+  </si>
+  <si>
+    <t>Users.GET.{id} ввод в id пользователя отрицательного числа</t>
+  </si>
+  <si>
+    <t>Users.PUT.{id} ввод в id пользователя  числа больше 8 разрядов</t>
+  </si>
+  <si>
+    <t>Users.DELETE.{id}  ввод в id пользователя отрицательного числа</t>
+  </si>
+  <si>
+    <t>Users.DELETE.{id} ввод в id пользователя числа больше 8 разрядов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1255,14 +1250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
@@ -1279,7 +1274,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1392,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -1418,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1444,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1496,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -1522,7 +1517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -1574,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1577,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
@@ -1600,7 +1595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1603,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -1626,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -1652,7 +1647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1655,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -1678,7 +1673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -1730,7 +1725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -1756,7 +1751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1811,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -1834,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1837,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -1860,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1886,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1938,7 +1933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>41</v>
@@ -1964,7 +1959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +1993,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -2016,7 +2011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2024,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -2042,7 +2037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2094,7 +2089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2097,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>41</v>
@@ -2120,7 +2115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2123,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -2146,7 +2141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -2172,7 +2167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -2198,7 +2193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +2219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2232,7 +2227,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -2250,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>41</v>
@@ -2276,7 +2271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2331,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -2354,7 +2349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2362,7 +2357,7 @@
         <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -2380,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -2406,7 +2401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2432,7 +2427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2440,91 +2435,91 @@
         <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>16</v>
@@ -2536,229 +2531,229 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>16</v>
@@ -2770,125 +2765,125 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>16</v>
@@ -2900,203 +2895,203 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="F67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>16</v>
@@ -3108,385 +3103,385 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="F74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
@@ -3498,151 +3493,151 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>16</v>
